--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3564.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3564.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15105569765347</v>
+        <v>0.7623068690299988</v>
       </c>
       <c r="B1">
-        <v>1.449882502536936</v>
+        <v>2.072154998779297</v>
       </c>
       <c r="C1">
-        <v>2.102242658486706</v>
+        <v>2.020151615142822</v>
       </c>
       <c r="D1">
-        <v>5.509797593259917</v>
+        <v>0.9882339239120483</v>
       </c>
       <c r="E1">
-        <v>2.703889520418422</v>
+        <v>1.127677202224731</v>
       </c>
     </row>
   </sheetData>
